--- a/e4e3/Notebooks/US_beveridge_data.xlsx
+++ b/e4e3/Notebooks/US_beveridge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/GitHub/data/e4e3/Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9032523E-FD27-9843-9E58-0B537374DD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DFCE54-3E8D-154E-A393-D61D9F0F050E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="29000" windowHeight="22500" xr2:uid="{8C9536DE-774F-9C49-B597-DF7C2A9C36BB}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="20720" windowHeight="22500" xr2:uid="{8C9536DE-774F-9C49-B597-DF7C2A9C36BB}"/>
   </bookViews>
   <sheets>
     <sheet name="US_beveridge_data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="21">
   <si>
     <t>Month</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Biden</t>
+  </si>
+  <si>
+    <t>Dec 2000 - Jun 2009</t>
+  </si>
+  <si>
+    <t>Period (Old)</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D15C483-AF2F-0148-88D6-2CAC028E4232}">
-  <dimension ref="A1:F266"/>
+  <dimension ref="A1:G266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,7 +491,7 @@
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,16 +502,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>36861</v>
       </c>
@@ -519,13 +528,16 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>36892</v>
       </c>
@@ -539,13 +551,16 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>36923</v>
       </c>
@@ -559,13 +574,16 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36951</v>
       </c>
@@ -579,13 +597,16 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>36982</v>
       </c>
@@ -599,13 +620,16 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>37012</v>
       </c>
@@ -619,13 +643,16 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>37043</v>
       </c>
@@ -639,13 +666,16 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>37073</v>
       </c>
@@ -659,13 +689,16 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>37104</v>
       </c>
@@ -679,13 +712,16 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>37135</v>
       </c>
@@ -699,13 +735,16 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>37165</v>
       </c>
@@ -719,13 +758,16 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>37196</v>
       </c>
@@ -739,13 +781,16 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>37226</v>
       </c>
@@ -759,13 +804,16 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>37257</v>
       </c>
@@ -779,13 +827,16 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>37288</v>
       </c>
@@ -799,13 +850,16 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>37316</v>
       </c>
@@ -819,13 +873,16 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>37347</v>
       </c>
@@ -839,13 +896,16 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>37377</v>
       </c>
@@ -859,13 +919,16 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>37408</v>
       </c>
@@ -879,13 +942,16 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>37438</v>
       </c>
@@ -899,13 +965,16 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>37469</v>
       </c>
@@ -919,13 +988,16 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>37500</v>
       </c>
@@ -939,13 +1011,16 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>37530</v>
       </c>
@@ -959,13 +1034,16 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>37561</v>
       </c>
@@ -979,13 +1057,16 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>37591</v>
       </c>
@@ -999,13 +1080,16 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>37622</v>
       </c>
@@ -1019,13 +1103,16 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>37653</v>
       </c>
@@ -1039,13 +1126,16 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>37681</v>
       </c>
@@ -1059,13 +1149,16 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>37712</v>
       </c>
@@ -1079,13 +1172,16 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>37742</v>
       </c>
@@ -1099,13 +1195,16 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>37773</v>
       </c>
@@ -1119,13 +1218,16 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>37803</v>
       </c>
@@ -1139,13 +1241,16 @@
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>37834</v>
       </c>
@@ -1159,13 +1264,16 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>37865</v>
       </c>
@@ -1179,13 +1287,16 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>37895</v>
       </c>
@@ -1199,13 +1310,16 @@
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>37926</v>
       </c>
@@ -1219,13 +1333,16 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37956</v>
       </c>
@@ -1239,13 +1356,16 @@
         <v>5</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37987</v>
       </c>
@@ -1259,13 +1379,16 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38018</v>
       </c>
@@ -1279,13 +1402,16 @@
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>38047</v>
       </c>
@@ -1299,13 +1425,16 @@
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>38078</v>
       </c>
@@ -1319,13 +1448,16 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>38108</v>
       </c>
@@ -1339,13 +1471,16 @@
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>38139</v>
       </c>
@@ -1359,13 +1494,16 @@
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>38169</v>
       </c>
@@ -1379,13 +1517,16 @@
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>38200</v>
       </c>
@@ -1399,13 +1540,16 @@
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>38231</v>
       </c>
@@ -1419,13 +1563,16 @@
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>38261</v>
       </c>
@@ -1439,13 +1586,16 @@
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>38292</v>
       </c>
@@ -1459,13 +1609,16 @@
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>38322</v>
       </c>
@@ -1479,13 +1632,16 @@
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>38353</v>
       </c>
@@ -1499,13 +1655,16 @@
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>38384</v>
       </c>
@@ -1519,13 +1678,16 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>38412</v>
       </c>
@@ -1539,13 +1701,16 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>38443</v>
       </c>
@@ -1559,13 +1724,16 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>38473</v>
       </c>
@@ -1579,13 +1747,16 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>38504</v>
       </c>
@@ -1599,13 +1770,16 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>38534</v>
       </c>
@@ -1619,13 +1793,16 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>38565</v>
       </c>
@@ -1639,13 +1816,16 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>38596</v>
       </c>
@@ -1659,13 +1839,16 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>38626</v>
       </c>
@@ -1679,13 +1862,16 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>38657</v>
       </c>
@@ -1699,13 +1885,16 @@
         <v>5</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>38687</v>
       </c>
@@ -1719,13 +1908,16 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>38718</v>
       </c>
@@ -1739,13 +1931,16 @@
         <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>38749</v>
       </c>
@@ -1759,13 +1954,16 @@
         <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>38777</v>
       </c>
@@ -1779,13 +1977,16 @@
         <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>38808</v>
       </c>
@@ -1799,13 +2000,16 @@
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>38838</v>
       </c>
@@ -1819,13 +2023,16 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>38869</v>
       </c>
@@ -1839,13 +2046,16 @@
         <v>5</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>38899</v>
       </c>
@@ -1859,13 +2069,16 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>38930</v>
       </c>
@@ -1879,13 +2092,16 @@
         <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>38961</v>
       </c>
@@ -1899,13 +2115,16 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>38991</v>
       </c>
@@ -1919,13 +2138,16 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>39022</v>
       </c>
@@ -1939,13 +2161,16 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>39052</v>
       </c>
@@ -1959,13 +2184,16 @@
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>39083</v>
       </c>
@@ -1979,13 +2207,16 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>39114</v>
       </c>
@@ -1999,13 +2230,16 @@
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>39142</v>
       </c>
@@ -2019,13 +2253,16 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>39173</v>
       </c>
@@ -2039,13 +2276,16 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>39203</v>
       </c>
@@ -2059,13 +2299,16 @@
         <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>39234</v>
       </c>
@@ -2079,13 +2322,16 @@
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>39264</v>
       </c>
@@ -2099,13 +2345,16 @@
         <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>39295</v>
       </c>
@@ -2119,13 +2368,16 @@
         <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>39326</v>
       </c>
@@ -2139,13 +2391,16 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>39356</v>
       </c>
@@ -2159,13 +2414,16 @@
         <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>39387</v>
       </c>
@@ -2179,13 +2437,16 @@
         <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>39417</v>
       </c>
@@ -2199,13 +2460,16 @@
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>39448</v>
       </c>
@@ -2219,13 +2483,16 @@
         <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>39479</v>
       </c>
@@ -2239,13 +2506,16 @@
         <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>39508</v>
       </c>
@@ -2259,13 +2529,16 @@
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>39539</v>
       </c>
@@ -2279,13 +2552,16 @@
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>39569</v>
       </c>
@@ -2299,13 +2575,16 @@
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>39600</v>
       </c>
@@ -2319,13 +2598,16 @@
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>39630</v>
       </c>
@@ -2339,13 +2621,16 @@
         <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>39661</v>
       </c>
@@ -2359,13 +2644,16 @@
         <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>39692</v>
       </c>
@@ -2379,13 +2667,16 @@
         <v>6</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>39722</v>
       </c>
@@ -2399,13 +2690,16 @@
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>39753</v>
       </c>
@@ -2419,13 +2713,16 @@
         <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>39783</v>
       </c>
@@ -2439,13 +2736,16 @@
         <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>39814</v>
       </c>
@@ -2459,13 +2759,16 @@
         <v>6</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>39845</v>
       </c>
@@ -2479,13 +2782,16 @@
         <v>6</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>39873</v>
       </c>
@@ -2499,13 +2805,16 @@
         <v>6</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>39904</v>
       </c>
@@ -2519,13 +2828,16 @@
         <v>6</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>39934</v>
       </c>
@@ -2539,13 +2851,16 @@
         <v>6</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>39965</v>
       </c>
@@ -2559,13 +2874,16 @@
         <v>6</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>39995</v>
       </c>
@@ -2579,13 +2897,16 @@
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>40026</v>
       </c>
@@ -2599,13 +2920,16 @@
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>40057</v>
       </c>
@@ -2619,13 +2943,16 @@
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>40087</v>
       </c>
@@ -2639,13 +2966,16 @@
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>40118</v>
       </c>
@@ -2659,13 +2989,16 @@
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>40148</v>
       </c>
@@ -2679,13 +3012,16 @@
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>40179</v>
       </c>
@@ -2699,13 +3035,16 @@
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>40210</v>
       </c>
@@ -2719,13 +3058,16 @@
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>40238</v>
       </c>
@@ -2739,13 +3081,16 @@
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>40269</v>
       </c>
@@ -2759,13 +3104,16 @@
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>40299</v>
       </c>
@@ -2779,13 +3127,16 @@
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>40330</v>
       </c>
@@ -2799,13 +3150,16 @@
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>40360</v>
       </c>
@@ -2819,13 +3173,16 @@
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>40391</v>
       </c>
@@ -2839,13 +3196,16 @@
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>40422</v>
       </c>
@@ -2859,13 +3219,16 @@
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>40452</v>
       </c>
@@ -2879,13 +3242,16 @@
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>40483</v>
       </c>
@@ -2899,13 +3265,16 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>40513</v>
       </c>
@@ -2919,13 +3288,16 @@
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>40544</v>
       </c>
@@ -2939,13 +3311,16 @@
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>40575</v>
       </c>
@@ -2959,13 +3334,16 @@
         <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>40603</v>
       </c>
@@ -2979,13 +3357,16 @@
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>40634</v>
       </c>
@@ -2999,13 +3380,16 @@
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>40664</v>
       </c>
@@ -3019,13 +3403,16 @@
         <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>40695</v>
       </c>
@@ -3039,13 +3426,16 @@
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>40725</v>
       </c>
@@ -3059,13 +3449,16 @@
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>40756</v>
       </c>
@@ -3079,13 +3472,16 @@
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>40787</v>
       </c>
@@ -3099,13 +3495,16 @@
         <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>40817</v>
       </c>
@@ -3119,13 +3518,16 @@
         <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>40848</v>
       </c>
@@ -3139,13 +3541,16 @@
         <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>40878</v>
       </c>
@@ -3159,13 +3564,16 @@
         <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>40909</v>
       </c>
@@ -3179,13 +3587,16 @@
         <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>40940</v>
       </c>
@@ -3199,13 +3610,16 @@
         <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>40969</v>
       </c>
@@ -3219,13 +3633,16 @@
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>41000</v>
       </c>
@@ -3239,13 +3656,16 @@
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>41030</v>
       </c>
@@ -3259,13 +3679,16 @@
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>41061</v>
       </c>
@@ -3279,13 +3702,16 @@
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>41091</v>
       </c>
@@ -3299,13 +3725,16 @@
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>41122</v>
       </c>
@@ -3319,13 +3748,16 @@
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>41153</v>
       </c>
@@ -3339,13 +3771,16 @@
         <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>41183</v>
       </c>
@@ -3359,13 +3794,16 @@
         <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>41214</v>
       </c>
@@ -3379,13 +3817,16 @@
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>41244</v>
       </c>
@@ -3399,13 +3840,16 @@
         <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>41275</v>
       </c>
@@ -3419,13 +3863,16 @@
         <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>41306</v>
       </c>
@@ -3439,13 +3886,16 @@
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>41334</v>
       </c>
@@ -3459,13 +3909,16 @@
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>41365</v>
       </c>
@@ -3479,13 +3932,16 @@
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>41395</v>
       </c>
@@ -3499,13 +3955,16 @@
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>41426</v>
       </c>
@@ -3519,13 +3978,16 @@
         <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>41456</v>
       </c>
@@ -3539,13 +4001,16 @@
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>41487</v>
       </c>
@@ -3559,13 +4024,16 @@
         <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>41518</v>
       </c>
@@ -3579,13 +4047,16 @@
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>41548</v>
       </c>
@@ -3599,13 +4070,16 @@
         <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>41579</v>
       </c>
@@ -3619,13 +4093,16 @@
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>41609</v>
       </c>
@@ -3639,13 +4116,16 @@
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>41640</v>
       </c>
@@ -3659,13 +4139,16 @@
         <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>41671</v>
       </c>
@@ -3679,13 +4162,16 @@
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>41699</v>
       </c>
@@ -3699,13 +4185,16 @@
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>41730</v>
       </c>
@@ -3719,13 +4208,16 @@
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>41760</v>
       </c>
@@ -3739,13 +4231,16 @@
         <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>41791</v>
       </c>
@@ -3759,13 +4254,16 @@
         <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>41821</v>
       </c>
@@ -3779,13 +4277,16 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>41852</v>
       </c>
@@ -3799,13 +4300,16 @@
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>41883</v>
       </c>
@@ -3819,13 +4323,16 @@
         <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>41913</v>
       </c>
@@ -3839,13 +4346,16 @@
         <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>41944</v>
       </c>
@@ -3859,13 +4369,16 @@
         <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>41974</v>
       </c>
@@ -3879,13 +4392,16 @@
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>42005</v>
       </c>
@@ -3899,13 +4415,16 @@
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>42036</v>
       </c>
@@ -3919,13 +4438,16 @@
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>42064</v>
       </c>
@@ -3939,13 +4461,16 @@
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>42095</v>
       </c>
@@ -3959,13 +4484,16 @@
         <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>42125</v>
       </c>
@@ -3979,13 +4507,16 @@
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>42156</v>
       </c>
@@ -3999,13 +4530,16 @@
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>42186</v>
       </c>
@@ -4019,13 +4553,16 @@
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>42217</v>
       </c>
@@ -4039,13 +4576,16 @@
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>42248</v>
       </c>
@@ -4059,13 +4599,16 @@
         <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>42278</v>
       </c>
@@ -4079,13 +4622,16 @@
         <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>42309</v>
       </c>
@@ -4099,13 +4645,16 @@
         <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>42339</v>
       </c>
@@ -4119,13 +4668,16 @@
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>42370</v>
       </c>
@@ -4139,13 +4691,16 @@
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>42401</v>
       </c>
@@ -4159,13 +4714,16 @@
         <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>42430</v>
       </c>
@@ -4179,13 +4737,16 @@
         <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>42461</v>
       </c>
@@ -4199,13 +4760,16 @@
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>42491</v>
       </c>
@@ -4219,13 +4783,16 @@
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>42522</v>
       </c>
@@ -4239,13 +4806,16 @@
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>42552</v>
       </c>
@@ -4259,13 +4829,16 @@
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>42583</v>
       </c>
@@ -4279,13 +4852,16 @@
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>42614</v>
       </c>
@@ -4299,13 +4875,16 @@
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>42644</v>
       </c>
@@ -4319,13 +4898,16 @@
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>42675</v>
       </c>
@@ -4339,13 +4921,16 @@
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>42705</v>
       </c>
@@ -4359,13 +4944,16 @@
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>42736</v>
       </c>
@@ -4379,13 +4967,16 @@
         <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>42767</v>
       </c>
@@ -4399,13 +4990,16 @@
         <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F196" t="s">
+        <v>11</v>
+      </c>
+      <c r="G196" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>42795</v>
       </c>
@@ -4419,13 +5013,16 @@
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F197" t="s">
+        <v>11</v>
+      </c>
+      <c r="G197" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>42826</v>
       </c>
@@ -4439,13 +5036,16 @@
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F198" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>42856</v>
       </c>
@@ -4459,13 +5059,16 @@
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F199" t="s">
+        <v>11</v>
+      </c>
+      <c r="G199" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>42887</v>
       </c>
@@ -4479,13 +5082,16 @@
         <v>7</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F200" t="s">
+        <v>11</v>
+      </c>
+      <c r="G200" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>42917</v>
       </c>
@@ -4499,13 +5105,16 @@
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F201" t="s">
+        <v>11</v>
+      </c>
+      <c r="G201" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>42948</v>
       </c>
@@ -4519,13 +5128,16 @@
         <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F202" t="s">
+        <v>11</v>
+      </c>
+      <c r="G202" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>42979</v>
       </c>
@@ -4539,13 +5151,16 @@
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F203" t="s">
+        <v>11</v>
+      </c>
+      <c r="G203" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>43009</v>
       </c>
@@ -4559,13 +5174,16 @@
         <v>7</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F204" t="s">
+        <v>11</v>
+      </c>
+      <c r="G204" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>43040</v>
       </c>
@@ -4579,13 +5197,16 @@
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F205" t="s">
+        <v>11</v>
+      </c>
+      <c r="G205" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>43070</v>
       </c>
@@ -4599,13 +5220,16 @@
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F206" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>43101</v>
       </c>
@@ -4619,13 +5243,16 @@
         <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F207" t="s">
+        <v>11</v>
+      </c>
+      <c r="G207" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>43132</v>
       </c>
@@ -4639,13 +5266,16 @@
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F208" t="s">
+        <v>11</v>
+      </c>
+      <c r="G208" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>43160</v>
       </c>
@@ -4659,13 +5289,16 @@
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F209" t="s">
+        <v>11</v>
+      </c>
+      <c r="G209" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>43191</v>
       </c>
@@ -4679,13 +5312,16 @@
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F210" t="s">
+        <v>11</v>
+      </c>
+      <c r="G210" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>43221</v>
       </c>
@@ -4699,13 +5335,16 @@
         <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F211" t="s">
+        <v>11</v>
+      </c>
+      <c r="G211" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>43252</v>
       </c>
@@ -4719,13 +5358,16 @@
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F212" t="s">
+        <v>11</v>
+      </c>
+      <c r="G212" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>43282</v>
       </c>
@@ -4739,13 +5381,16 @@
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F213" t="s">
+        <v>11</v>
+      </c>
+      <c r="G213" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>43313</v>
       </c>
@@ -4759,13 +5404,16 @@
         <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F214" t="s">
+        <v>11</v>
+      </c>
+      <c r="G214" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>43344</v>
       </c>
@@ -4779,13 +5427,16 @@
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F215" t="s">
+        <v>11</v>
+      </c>
+      <c r="G215" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>43374</v>
       </c>
@@ -4799,13 +5450,16 @@
         <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F216" t="s">
+        <v>11</v>
+      </c>
+      <c r="G216" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>43405</v>
       </c>
@@ -4819,13 +5473,16 @@
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F217" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>43435</v>
       </c>
@@ -4839,13 +5496,16 @@
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F218" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>43466</v>
       </c>
@@ -4859,13 +5519,16 @@
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F219" t="s">
+        <v>11</v>
+      </c>
+      <c r="G219" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>43497</v>
       </c>
@@ -4879,13 +5542,16 @@
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F220" t="s">
+        <v>11</v>
+      </c>
+      <c r="G220" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>43525</v>
       </c>
@@ -4899,13 +5565,16 @@
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F221" t="s">
+        <v>11</v>
+      </c>
+      <c r="G221" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>43556</v>
       </c>
@@ -4919,13 +5588,16 @@
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F222" t="s">
+        <v>11</v>
+      </c>
+      <c r="G222" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>43586</v>
       </c>
@@ -4939,13 +5611,16 @@
         <v>7</v>
       </c>
       <c r="E223" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F223" t="s">
+        <v>11</v>
+      </c>
+      <c r="G223" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>43617</v>
       </c>
@@ -4959,13 +5634,16 @@
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F224" t="s">
+        <v>11</v>
+      </c>
+      <c r="G224" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>43647</v>
       </c>
@@ -4979,13 +5657,16 @@
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F225" t="s">
+        <v>11</v>
+      </c>
+      <c r="G225" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>43678</v>
       </c>
@@ -4999,13 +5680,16 @@
         <v>7</v>
       </c>
       <c r="E226" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F226" t="s">
+        <v>11</v>
+      </c>
+      <c r="G226" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>43709</v>
       </c>
@@ -5019,13 +5703,16 @@
         <v>7</v>
       </c>
       <c r="E227" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F227" t="s">
+        <v>11</v>
+      </c>
+      <c r="G227" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>43739</v>
       </c>
@@ -5039,13 +5726,16 @@
         <v>7</v>
       </c>
       <c r="E228" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F228" t="s">
+        <v>11</v>
+      </c>
+      <c r="G228" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>43770</v>
       </c>
@@ -5059,13 +5749,16 @@
         <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F229" t="s">
+        <v>11</v>
+      </c>
+      <c r="G229" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>43800</v>
       </c>
@@ -5079,13 +5772,16 @@
         <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F230" t="s">
+        <v>11</v>
+      </c>
+      <c r="G230" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>43831</v>
       </c>
@@ -5099,13 +5795,16 @@
         <v>7</v>
       </c>
       <c r="E231" t="s">
+        <v>7</v>
+      </c>
+      <c r="F231" t="s">
         <v>12</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>43862</v>
       </c>
@@ -5119,13 +5818,16 @@
         <v>7</v>
       </c>
       <c r="E232" t="s">
+        <v>7</v>
+      </c>
+      <c r="F232" t="s">
         <v>12</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>43891</v>
       </c>
@@ -5139,13 +5841,16 @@
         <v>7</v>
       </c>
       <c r="E233" t="s">
+        <v>7</v>
+      </c>
+      <c r="F233" t="s">
         <v>12</v>
       </c>
-      <c r="F233" t="s">
+      <c r="G233" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>43922</v>
       </c>
@@ -5159,13 +5864,16 @@
         <v>8</v>
       </c>
       <c r="E234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" t="s">
         <v>12</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>43952</v>
       </c>
@@ -5179,13 +5887,16 @@
         <v>8</v>
       </c>
       <c r="E235" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" t="s">
         <v>12</v>
       </c>
-      <c r="F235" t="s">
+      <c r="G235" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>43983</v>
       </c>
@@ -5199,13 +5910,16 @@
         <v>8</v>
       </c>
       <c r="E236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" t="s">
         <v>12</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>44013</v>
       </c>
@@ -5219,13 +5933,16 @@
         <v>8</v>
       </c>
       <c r="E237" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" t="s">
         <v>12</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>44044</v>
       </c>
@@ -5239,13 +5956,16 @@
         <v>8</v>
       </c>
       <c r="E238" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" t="s">
         <v>12</v>
       </c>
-      <c r="F238" t="s">
+      <c r="G238" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>44075</v>
       </c>
@@ -5259,13 +5979,16 @@
         <v>8</v>
       </c>
       <c r="E239" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" t="s">
         <v>12</v>
       </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>44105</v>
       </c>
@@ -5279,13 +6002,16 @@
         <v>8</v>
       </c>
       <c r="E240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" t="s">
         <v>12</v>
       </c>
-      <c r="F240" t="s">
+      <c r="G240" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>44136</v>
       </c>
@@ -5299,13 +6025,16 @@
         <v>8</v>
       </c>
       <c r="E241" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" t="s">
         <v>12</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>44166</v>
       </c>
@@ -5319,13 +6048,16 @@
         <v>8</v>
       </c>
       <c r="E242" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" t="s">
         <v>12</v>
       </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>44197</v>
       </c>
@@ -5339,13 +6071,16 @@
         <v>8</v>
       </c>
       <c r="E243" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" t="s">
         <v>12</v>
       </c>
-      <c r="F243" t="s">
+      <c r="G243" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>44228</v>
       </c>
@@ -5359,13 +6094,16 @@
         <v>8</v>
       </c>
       <c r="E244" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" t="s">
         <v>12</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>44256</v>
       </c>
@@ -5379,13 +6117,16 @@
         <v>8</v>
       </c>
       <c r="E245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" t="s">
         <v>12</v>
       </c>
-      <c r="F245" t="s">
+      <c r="G245" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>44287</v>
       </c>
@@ -5399,13 +6140,16 @@
         <v>8</v>
       </c>
       <c r="E246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" t="s">
         <v>12</v>
       </c>
-      <c r="F246" t="s">
+      <c r="G246" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>44317</v>
       </c>
@@ -5419,13 +6163,16 @@
         <v>8</v>
       </c>
       <c r="E247" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" t="s">
         <v>12</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>44348</v>
       </c>
@@ -5439,13 +6186,16 @@
         <v>8</v>
       </c>
       <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" t="s">
         <v>12</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>44378</v>
       </c>
@@ -5459,13 +6209,16 @@
         <v>8</v>
       </c>
       <c r="E249" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249" t="s">
         <v>12</v>
       </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>44409</v>
       </c>
@@ -5479,13 +6232,16 @@
         <v>8</v>
       </c>
       <c r="E250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" t="s">
         <v>12</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>44440</v>
       </c>
@@ -5499,13 +6255,16 @@
         <v>8</v>
       </c>
       <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" t="s">
         <v>12</v>
       </c>
-      <c r="F251" t="s">
+      <c r="G251" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>44470</v>
       </c>
@@ -5519,13 +6278,16 @@
         <v>8</v>
       </c>
       <c r="E252" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" t="s">
         <v>12</v>
       </c>
-      <c r="F252" t="s">
+      <c r="G252" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>44501</v>
       </c>
@@ -5539,13 +6301,16 @@
         <v>8</v>
       </c>
       <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" t="s">
         <v>12</v>
       </c>
-      <c r="F253" t="s">
+      <c r="G253" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>44531</v>
       </c>
@@ -5559,13 +6324,16 @@
         <v>8</v>
       </c>
       <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" t="s">
         <v>12</v>
       </c>
-      <c r="F254" t="s">
+      <c r="G254" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>44562</v>
       </c>
@@ -5579,13 +6347,16 @@
         <v>8</v>
       </c>
       <c r="E255" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255" t="s">
         <v>12</v>
       </c>
-      <c r="F255" t="s">
+      <c r="G255" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>44593</v>
       </c>
@@ -5599,13 +6370,16 @@
         <v>8</v>
       </c>
       <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256" t="s">
         <v>12</v>
       </c>
-      <c r="F256" t="s">
+      <c r="G256" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>44621</v>
       </c>
@@ -5619,13 +6393,16 @@
         <v>8</v>
       </c>
       <c r="E257" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" t="s">
         <v>12</v>
       </c>
-      <c r="F257" t="s">
+      <c r="G257" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>44652</v>
       </c>
@@ -5639,13 +6416,16 @@
         <v>8</v>
       </c>
       <c r="E258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" t="s">
         <v>12</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>44682</v>
       </c>
@@ -5659,13 +6439,16 @@
         <v>8</v>
       </c>
       <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259" t="s">
         <v>12</v>
       </c>
-      <c r="F259" t="s">
+      <c r="G259" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>44713</v>
       </c>
@@ -5679,13 +6462,16 @@
         <v>8</v>
       </c>
       <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260" t="s">
         <v>12</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>44743</v>
       </c>
@@ -5699,13 +6485,16 @@
         <v>8</v>
       </c>
       <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" t="s">
         <v>12</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>44774</v>
       </c>
@@ -5719,13 +6508,16 @@
         <v>8</v>
       </c>
       <c r="E262" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262" t="s">
         <v>12</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>44805</v>
       </c>
@@ -5739,13 +6531,16 @@
         <v>8</v>
       </c>
       <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" t="s">
         <v>12</v>
       </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>44835</v>
       </c>
@@ -5759,13 +6554,16 @@
         <v>8</v>
       </c>
       <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264" t="s">
         <v>12</v>
       </c>
-      <c r="F264" t="s">
+      <c r="G264" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>44866</v>
       </c>
@@ -5779,13 +6577,16 @@
         <v>8</v>
       </c>
       <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265" t="s">
         <v>12</v>
       </c>
-      <c r="F265" t="s">
+      <c r="G265" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>44896</v>
       </c>
@@ -5799,9 +6600,12 @@
         <v>8</v>
       </c>
       <c r="E266" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266" t="s">
         <v>12</v>
       </c>
-      <c r="F266" t="s">
+      <c r="G266" t="s">
         <v>18</v>
       </c>
     </row>

--- a/e4e3/Notebooks/US_beveridge_data.xlsx
+++ b/e4e3/Notebooks/US_beveridge_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/GitHub/data/e4e3/Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DFCE54-3E8D-154E-A393-D61D9F0F050E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DC64C-A789-4548-9E50-E181E4166F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="20720" windowHeight="22500" xr2:uid="{8C9536DE-774F-9C49-B597-DF7C2A9C36BB}"/>
   </bookViews>

--- a/e4e3/Notebooks/US_beveridge_data.xlsx
+++ b/e4e3/Notebooks/US_beveridge_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finn/Documents/GitHub/data/e4e3/Notebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2DC64C-A789-4548-9E50-E181E4166F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85827C21-DBDA-8B45-A937-92D4B4AAB940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="20720" windowHeight="22500" xr2:uid="{8C9536DE-774F-9C49-B597-DF7C2A9C36BB}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{8C9536DE-774F-9C49-B597-DF7C2A9C36BB}"/>
   </bookViews>
   <sheets>
     <sheet name="US_beveridge_data" sheetId="1" r:id="rId1"/>
@@ -105,6 +105,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -164,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +485,7 @@
   <dimension ref="A1:G266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2:C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
